--- a/SprintBacklog/Sprint2.xlsx
+++ b/SprintBacklog/Sprint2.xlsx
@@ -114,9 +114,6 @@
     <t>3) The user shall be able to add a recipe</t>
   </si>
   <si>
-    <t>(13th - 17th on holiday)</t>
-  </si>
-  <si>
     <t>Create GUI</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Sun 4th Jan 2015 - Sun 18th Jan 2015</t>
+  </si>
+  <si>
+    <t>SPRINT UNSUCESSFUL - very ill during the first week  and then was on holiday 13th - 17th</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -378,6 +378,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -385,6 +399,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -428,335 +449,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -820,8 +512,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="81"/>
-      <tableStyleElement type="headerRow" dxfId="80"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1130,7 +822,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,15 +838,15 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>14</v>
@@ -1271,6 +963,9 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1380,6 +1075,9 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1439,30 +1137,59 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8">
         <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8">
         <v>15</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+      <c r="I12" s="3">
+        <v>12</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12</v>
+      </c>
+      <c r="K12" s="3">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3">
+        <v>12</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3">
+        <v>12</v>
+      </c>
+      <c r="P12" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>12</v>
+      </c>
+      <c r="R12" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1477,23 +1204,52 @@
       <c r="D13" s="8">
         <v>15</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>15</v>
+      </c>
+      <c r="K13" s="3">
+        <v>15</v>
+      </c>
+      <c r="L13" s="3">
+        <v>15</v>
+      </c>
+      <c r="M13" s="3">
+        <v>15</v>
+      </c>
+      <c r="N13" s="3">
+        <v>15</v>
+      </c>
+      <c r="O13" s="3">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>15</v>
+      </c>
+      <c r="R13" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8">
         <v>6</v>
@@ -1504,23 +1260,52 @@
       <c r="D14" s="8">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6</v>
+      </c>
+      <c r="P14" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8">
         <v>20</v>
@@ -1531,19 +1316,48 @@
       <c r="D15" s="8">
         <v>25</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="E15" s="3">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3">
+        <v>25</v>
+      </c>
+      <c r="H15" s="3">
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>25</v>
+      </c>
+      <c r="J15" s="3">
+        <v>25</v>
+      </c>
+      <c r="K15" s="3">
+        <v>25</v>
+      </c>
+      <c r="L15" s="3">
+        <v>25</v>
+      </c>
+      <c r="M15" s="3">
+        <v>25</v>
+      </c>
+      <c r="N15" s="3">
+        <v>25</v>
+      </c>
+      <c r="O15" s="3">
+        <v>25</v>
+      </c>
+      <c r="P15" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>25</v>
+      </c>
+      <c r="R15" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
@@ -1689,124 +1503,124 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <f>SUM(D5:D17)</f>
+        <f t="shared" ref="D21:J21" si="0">SUM(D5:D17)</f>
         <v>61</v>
       </c>
       <c r="E21">
-        <f>SUM(E5:E17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="F21">
-        <f>SUM(F5:F17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="G21">
-        <f>SUM(G5:G17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="H21">
-        <f>SUM(H5:H17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="I21">
-        <f>SUM(I5:I17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="J21">
-        <f>SUM(J5:J17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="K21">
-        <f>SUM(K5:K20)</f>
-        <v>0</v>
+        <f t="shared" ref="K21:Q21" si="1">SUM(K5:K20)</f>
+        <v>58</v>
       </c>
       <c r="L21">
-        <f>SUM(L5:L20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="M21">
-        <f>SUM(M5:M20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="N21">
-        <f>SUM(N5:N20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="O21">
-        <f>SUM(O5:O20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="P21">
-        <f>SUM(P5:P20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="Q21">
-        <f>SUM(Q5:Q20)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="63" priority="118" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="118" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="119" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="119" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="120" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="120" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="60" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="117" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="47" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="38" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
